--- a/documents/BE/REST_API명세서.xlsx
+++ b/documents/BE/REST_API명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\양철민\WorkerSafety\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\양철민\WorkerSafety\documents\BE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A12:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,7 +537,7 @@
   <sheetData>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -575,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,7 +579,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,12 +613,12 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,16 +643,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,16 +660,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,21 +677,21 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,13 +719,13 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,13 +753,13 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/documents/BE/REST_API명세서.xlsx
+++ b/documents/BE/REST_API명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업자 세부정보 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업자 추가결과 결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,26 @@
   </si>
   <si>
     <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/listdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자세부정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자 정보 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업자생체정보 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,23 +537,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:E33"/>
+  <dimension ref="A12:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,7 +775,24 @@
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
